--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi1-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,13 +91,13 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.0701183765730351</v>
+        <v>0.002491666666666667</v>
       </c>
       <c r="H2">
-        <v>0.0701183765730351</v>
+        <v>0.007475</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.46712912813091</v>
+        <v>1.715363</v>
       </c>
       <c r="N2">
-        <v>1.46712912813091</v>
+        <v>5.146089</v>
       </c>
       <c r="O2">
-        <v>0.1694495254600549</v>
+        <v>0.1765901754351529</v>
       </c>
       <c r="P2">
-        <v>0.1694495254600549</v>
+        <v>0.1765901754351529</v>
       </c>
       <c r="Q2">
-        <v>0.1028727126875518</v>
+        <v>0.004274112808333333</v>
       </c>
       <c r="R2">
-        <v>0.1028727126875518</v>
+        <v>0.038467015275</v>
       </c>
       <c r="S2">
-        <v>0.1694495254600549</v>
+        <v>0.004884626001442315</v>
       </c>
       <c r="T2">
-        <v>0.1694495254600549</v>
+        <v>0.004884626001442315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.0701183765730351</v>
+        <v>0.002491666666666667</v>
       </c>
       <c r="H3">
-        <v>0.0701183765730351</v>
+        <v>0.007475</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.08748137927263</v>
+        <v>1.134481666666667</v>
       </c>
       <c r="N3">
-        <v>1.08748137927263</v>
+        <v>3.403445</v>
       </c>
       <c r="O3">
-        <v>0.1256012167784802</v>
+        <v>0.1167906248092277</v>
       </c>
       <c r="P3">
-        <v>0.1256012167784802</v>
+        <v>0.1167906248092278</v>
       </c>
       <c r="Q3">
-        <v>0.07625242886800189</v>
+        <v>0.002826750152777778</v>
       </c>
       <c r="R3">
-        <v>0.07625242886800189</v>
+        <v>0.025440751375</v>
       </c>
       <c r="S3">
-        <v>0.1256012167784802</v>
+        <v>0.003230522430039363</v>
       </c>
       <c r="T3">
-        <v>0.1256012167784802</v>
+        <v>0.003230522430039364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.0701183765730351</v>
+        <v>0.002491666666666667</v>
       </c>
       <c r="H4">
-        <v>0.0701183765730351</v>
+        <v>0.007475</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.655522186067547</v>
+        <v>0.8505606666666666</v>
       </c>
       <c r="N4">
-        <v>0.655522186067547</v>
+        <v>2.551682</v>
       </c>
       <c r="O4">
-        <v>0.0757110749339388</v>
+        <v>0.08756202468218523</v>
       </c>
       <c r="P4">
-        <v>0.0757110749339388</v>
+        <v>0.08756202468218523</v>
       </c>
       <c r="Q4">
-        <v>0.04596415149466344</v>
+        <v>0.002119313661111111</v>
       </c>
       <c r="R4">
-        <v>0.04596415149466344</v>
+        <v>0.01907382295</v>
       </c>
       <c r="S4">
-        <v>0.0757110749339388</v>
+        <v>0.002422035888732653</v>
       </c>
       <c r="T4">
-        <v>0.0757110749339388</v>
+        <v>0.002422035888732653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.0701183765730351</v>
+        <v>0.002491666666666667</v>
       </c>
       <c r="H5">
-        <v>0.0701183765730351</v>
+        <v>0.007475</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.02766080269984236</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.17277375825517</v>
+        <v>2.293933666666666</v>
       </c>
       <c r="N5">
-        <v>2.17277375825517</v>
+        <v>6.881800999999999</v>
       </c>
       <c r="O5">
-        <v>0.2509496098257186</v>
+        <v>0.2361518516099917</v>
       </c>
       <c r="P5">
-        <v>0.2509496098257186</v>
+        <v>0.2361518516099917</v>
       </c>
       <c r="Q5">
-        <v>0.1523513685893448</v>
+        <v>0.005715718052777777</v>
       </c>
       <c r="R5">
-        <v>0.1523513685893448</v>
+        <v>0.051441462475</v>
       </c>
       <c r="S5">
-        <v>0.2509496098257186</v>
+        <v>0.006532149774586432</v>
       </c>
       <c r="T5">
-        <v>0.2509496098257186</v>
+        <v>0.006532149774586432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,495 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.002491666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.007475</v>
+      </c>
+      <c r="I6">
+        <v>0.02766080269984236</v>
+      </c>
+      <c r="J6">
+        <v>0.02766080269984236</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1715316666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.514595</v>
+      </c>
+      <c r="O6">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="P6">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="Q6">
+        <v>0.0004273997361111111</v>
+      </c>
+      <c r="R6">
+        <v>0.003846597625</v>
+      </c>
+      <c r="S6">
+        <v>0.0004884494063768053</v>
+      </c>
+      <c r="T6">
+        <v>0.0004884494063768053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.002491666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.007475</v>
+      </c>
+      <c r="I7">
+        <v>0.02766080269984236</v>
+      </c>
+      <c r="J7">
+        <v>0.02766080269984236</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.547937</v>
+      </c>
+      <c r="N7">
+        <v>10.643811</v>
+      </c>
+      <c r="O7">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="P7">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="Q7">
+        <v>0.008840276358333333</v>
+      </c>
+      <c r="R7">
+        <v>0.07956248722499999</v>
+      </c>
+      <c r="S7">
+        <v>0.01010301919866479</v>
+      </c>
+      <c r="T7">
+        <v>0.0101030191986648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.08758766666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.262763</v>
+      </c>
+      <c r="I8">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="J8">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.715363</v>
+      </c>
+      <c r="N8">
+        <v>5.146089</v>
+      </c>
+      <c r="O8">
+        <v>0.1765901754351529</v>
+      </c>
+      <c r="P8">
+        <v>0.1765901754351529</v>
+      </c>
+      <c r="Q8">
+        <v>0.1502446426563333</v>
+      </c>
+      <c r="R8">
+        <v>1.352201783907</v>
+      </c>
+      <c r="S8">
+        <v>0.1717055494337106</v>
+      </c>
+      <c r="T8">
+        <v>0.1717055494337106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.0701183765730351</v>
-      </c>
-      <c r="H6">
-        <v>0.0701183765730351</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>3.27530090617374</v>
-      </c>
-      <c r="N6">
-        <v>3.27530090617374</v>
-      </c>
-      <c r="O6">
-        <v>0.3782885730018076</v>
-      </c>
-      <c r="P6">
-        <v>0.3782885730018076</v>
-      </c>
-      <c r="Q6">
-        <v>0.2296587823290934</v>
-      </c>
-      <c r="R6">
-        <v>0.2296587823290934</v>
-      </c>
-      <c r="S6">
-        <v>0.3782885730018076</v>
-      </c>
-      <c r="T6">
-        <v>0.3782885730018076</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.08758766666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.262763</v>
+      </c>
+      <c r="I9">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="J9">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.134481666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.403445</v>
+      </c>
+      <c r="O9">
+        <v>0.1167906248092277</v>
+      </c>
+      <c r="P9">
+        <v>0.1167906248092278</v>
+      </c>
+      <c r="Q9">
+        <v>0.09936660205944443</v>
+      </c>
+      <c r="R9">
+        <v>0.8942994185349999</v>
+      </c>
+      <c r="S9">
+        <v>0.1135601023791884</v>
+      </c>
+      <c r="T9">
+        <v>0.1135601023791884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.08758766666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.262763</v>
+      </c>
+      <c r="I10">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="J10">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8505606666666666</v>
+      </c>
+      <c r="N10">
+        <v>2.551682</v>
+      </c>
+      <c r="O10">
+        <v>0.08756202468218523</v>
+      </c>
+      <c r="P10">
+        <v>0.08756202468218523</v>
+      </c>
+      <c r="Q10">
+        <v>0.07449862415177777</v>
+      </c>
+      <c r="R10">
+        <v>0.6704876173659999</v>
+      </c>
+      <c r="S10">
+        <v>0.08513998879345257</v>
+      </c>
+      <c r="T10">
+        <v>0.08513998879345257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.08758766666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.262763</v>
+      </c>
+      <c r="I11">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="J11">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.293933666666666</v>
+      </c>
+      <c r="N11">
+        <v>6.881800999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="P11">
+        <v>0.2361518516099917</v>
+      </c>
+      <c r="Q11">
+        <v>0.2009202973514444</v>
+      </c>
+      <c r="R11">
+        <v>1.808282676163</v>
+      </c>
+      <c r="S11">
+        <v>0.2296197018354053</v>
+      </c>
+      <c r="T11">
+        <v>0.2296197018354053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.08758766666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.262763</v>
+      </c>
+      <c r="I12">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="J12">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1715316666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.514595</v>
+      </c>
+      <c r="O12">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="P12">
+        <v>0.01765854055925821</v>
+      </c>
+      <c r="Q12">
+        <v>0.01502405844277778</v>
+      </c>
+      <c r="R12">
+        <v>0.135216525985</v>
+      </c>
+      <c r="S12">
+        <v>0.0171700911528814</v>
+      </c>
+      <c r="T12">
+        <v>0.0171700911528814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.08758766666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.262763</v>
+      </c>
+      <c r="I13">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="J13">
+        <v>0.9723391973001576</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.547937</v>
+      </c>
+      <c r="N13">
+        <v>10.643811</v>
+      </c>
+      <c r="O13">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="P13">
+        <v>0.3652467829041842</v>
+      </c>
+      <c r="Q13">
+        <v>0.3107555233103333</v>
+      </c>
+      <c r="R13">
+        <v>2.796799709793</v>
+      </c>
+      <c r="S13">
+        <v>0.3551437637055194</v>
+      </c>
+      <c r="T13">
+        <v>0.3551437637055194</v>
       </c>
     </row>
   </sheetData>
